--- a/biology/Zoologie/Athanas/Athanas.xlsx
+++ b/biology/Zoologie/Athanas/Athanas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Athanas est un genre de crevettes marines de la famille des Alpheidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Athanas est un genre de crevettes marines de la famille des Alpheidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 juin 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 juin 2023) :
 Athanas ahyongi Anker &amp; Komai, 2010
 Athanas alpheusophilus Marin, 2017
 Athanas amazone Holthuis, 1951
@@ -584,10 +598,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Athanas Leach, 1814[1].
-Athanas a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Athanas Leach, 1814.
+Athanas a pour synonyme :
 Athanus Leach, 1814</t>
         </is>
       </c>
